--- a/data/trans_bre/P23_7_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_7_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-0,19</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>92,48%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,7%</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
+          <t>84,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>-9,78%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>45,35%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>40,28%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>-1,63%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-12,77%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 6,28</t>
+          <t>0,81; 6,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 1,82</t>
+          <t>-2,86; 1,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 5,14</t>
+          <t>0,18; 5,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 3,28</t>
+          <t>-1,06; 6,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,7; 226,81</t>
+          <t>-3,77; 3,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 43,95</t>
+          <t>-5,16; 1,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 121,3</t>
+          <t>16,43; 218,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 34,57</t>
+          <t>-41,69; 37,6</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2,28; 122,62</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-13,84; 110,91</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-27,89; 32,27</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-36,68; 19,44</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,5%</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>-10,48%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13,21%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>61,09%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-21,84%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 4,31</t>
+          <t>-3,15; 4,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 2,31</t>
+          <t>-4,84; 2,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,78</t>
+          <t>-1,78; 3,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 7,78</t>
+          <t>-0,47; 5,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 92,76</t>
+          <t>-6,16; 8,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 57,2</t>
+          <t>-8,62; 3,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,7; 81,66</t>
+          <t>-38,7; 106,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,41; 104,03</t>
+          <t>-52,35; 55,17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-30,32; 106,02</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-10,38; 166,6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-47,55; 105,21</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-55,19; 41,72</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-3,69</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>23,51%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-33,41%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-35,72%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19,39%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-29,08%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 7,02</t>
+          <t>-4,8; 7,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 3,0</t>
+          <t>-18,11; 3,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 6,44</t>
+          <t>-5,66; 7,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-23,09; 5,88</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-48,22; 238,52</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-78,88; 44,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-65,38; 206,34</t>
+          <t>-53,46; 240,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-79,48; 53,43</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-56,25; 269,76</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-83,33; 134,03</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,62%</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>40,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>-16,38%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31,45%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30,92%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-0,11%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-15,01%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 4,09</t>
+          <t>0,05; 4,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 1,2</t>
+          <t>-3,26; 0,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,21</t>
+          <t>-0,13; 3,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 3,19</t>
+          <t>-1,16; 4,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 95,21</t>
+          <t>-3,07; 3,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 22,8</t>
+          <t>-4,58; 1,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 72,11</t>
+          <t>-1,96; 100,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 32,51</t>
+          <t>-39,88; 14,75</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 75,76</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-18,1; 86,34</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-23,84; 30,68</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-33,75; 13,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_7_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_7_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,42</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,19</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>84,28%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-9,78%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>45,35%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>40,28%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-1,63%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-12,77%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.618498003905154</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.3428959298060391</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.559856921641979</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.903413105583448</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.1878703914362637</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-1.419227014655661</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.9129675345854791</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.06251267921267363</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.4649221989236925</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.4312579130905249</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.01631462400007886</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.1213937365849464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,81; 6,08</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 1,58</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 5,21</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 6,04</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-3,77; 3,05</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 1,93</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>16,43; 218,54</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-41,69; 37,6</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>2,28; 122,62</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-13,84; 110,91</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-27,89; 32,27</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-36,68; 19,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.8907443804830196</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.64743536910821</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.2630242480651239</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.688771022593565</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-3.769560052789757</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-5.078897165268951</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.1816329891996337</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4070522429810329</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.03006521223589486</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1297918634701771</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.278934718147845</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.3622717562325524</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.381146687687204</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.916642059100542</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.283608863980149</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6.401317756930236</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.047781017565998</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.982548463282062</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.233385308642111</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.444714746143429</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.267839622881124</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.180145310209973</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.3227145442430043</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.2060729272757727</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-2,75</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>12,63%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-10,48%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>13,21%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>61,09%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>5,01%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-21,84%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 4,84</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,84; 2,37</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 3,3</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 5,53</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-6,16; 8,06</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-8,62; 3,83</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-38,7; 106,14</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-52,35; 55,17</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-30,32; 106,02</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-10,38; 166,6</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-47,55; 105,21</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-55,19; 41,72</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.08964200764366298</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.6987988159805475</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.5793455627822894</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.695489761235624</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.5405435461995567</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-2.850068842242711</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.01346530532096152</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1120418591474115</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1287472111153007</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.6042462960020533</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.05005884204007544</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.225913379164239</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,36</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,69</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>23,36%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-35,72%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>19,39%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-29,08%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.674126193869875</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.070427170132481</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.838159576583327</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4611450982462947</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-6.156282237296928</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-8.663567197770128</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.417028482318519</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5439979629423917</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3109730903171237</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.113483425852007</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.4755321809020689</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.5521136682446011</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,8; 7,6</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,11; 3,23</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,66; 7,59</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-23,09; 5,88</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-53,46; 240,41</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-79,48; 53,43</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-56,25; 269,76</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-83,33; 134,03</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.78889509590525</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.327272988961948</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.282841550419105</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.571333374488247</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>8.059997510738413</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>3.680575368981436</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.8179850595763577</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.5499861581691443</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.01123684153117</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.664532509402138</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.052052413533611</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.3926423613828053</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,15</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,09</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-1,79</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>40,73%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-16,38%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>31,45%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>30,92%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-0,11%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-15,01%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.906307669477535</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.191214161133478</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.4099212662130106</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-4.053003165518784</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.3374780966648892</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3577183348638853</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.05632936230665308</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.3189851205060876</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 4,18</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 0,78</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 3,4</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 4,51</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,07; 3,05</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,58; 1,5</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 100,25</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-39,88; 14,75</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; 75,76</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-18,1; 86,34</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-23,84; 30,68</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-33,75; 13,95</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.962735389845484</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-16.14126464989769</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.160341549547953</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-24.27590675284015</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.4998094927174794</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7840515197086435</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.6479553327783355</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.8413270763929449</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.534397378603999</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.22549215517838</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.254933521654189</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.476032863472208</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>2.538294191933311</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5118348060224647</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.250048573324212</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.278793649854375</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.016778860482312</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.9816722325452178</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.560184659875648</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.055201074403088</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.01279827703989378</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-1.754901960931858</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3850066703399932</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1500088194025849</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2933081848733045</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3154928429868563</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.00112831778753582</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.147287332517095</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.03472785326920458</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.110156404585414</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2848943395039085</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.309829490842949</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.073729224831999</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-4.570738918531187</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.01064585937653743</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3806908883301488</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.05440901155715284</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1842888498626305</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.2383991774335743</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.3344913632746971</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.080240505180513</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8457832528440038</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.343051744228203</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.534701038762034</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.054769762241099</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.496769797546171</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.9724331580718572</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1638805986162999</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7295167418949112</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.8631466716489546</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.306825730169115</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.1434865272627436</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
